--- a/doc/Process/3-软件迭代阶段/1-软件第一次迭代(v0.1)/SprintBacklogs-0.1.xlsx
+++ b/doc/Process/3-软件迭代阶段/1-软件第一次迭代(v0.1)/SprintBacklogs-0.1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Desktop/Tinder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D79F7ADF-50EB-1E4F-8604-443DB1F0A9C2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{40305516-256F-624D-8F3F-8CE6572D53FF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="51">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -81,13 +81,6 @@
   </si>
   <si>
     <t>A01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册登录</t>
-    <rPh sb="0" eb="2">
-      <t>zhu c</t>
-    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -222,13 +215,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>注册账户</t>
-    <rPh sb="0" eb="2">
-      <t>zu h c</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>登陆账户</t>
     <rPh sb="0" eb="2">
       <t>deng l</t>
@@ -264,6 +250,27 @@
   </si>
   <si>
     <t>A15</t>
+  </si>
+  <si>
+    <t>解禁账号</t>
+    <rPh sb="0" eb="4">
+      <t>jie kajie kafeng ji</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除部门</t>
+    <rPh sb="0" eb="4">
+      <t>shan ch</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A16</t>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -678,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="11"/>
@@ -727,10 +734,10 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -751,37 +758,37 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4">
-        <f>F3*H3</f>
-        <v>2</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="E3" s="1">
+        <f t="shared" ref="E3" si="0">F3*H3</f>
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -790,14 +797,14 @@
         <v>10</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4" si="0">F4*H4</f>
-        <v>2</v>
+        <f t="shared" ref="E4" si="1">F4*H4</f>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -805,10 +812,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>21</v>
@@ -817,11 +824,11 @@
         <v>10</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ref="E5" si="1">F5*H5</f>
-        <v>1</v>
+        <f t="shared" ref="E5:E17" si="2">F5*H5</f>
+        <v>2</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>8</v>
@@ -832,19 +839,19 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ref="E6:E16" si="2">F6*H6</f>
+        <f t="shared" ref="E6" si="3">F6*H6</f>
         <v>2</v>
       </c>
       <c r="F6" s="1">
@@ -859,13 +866,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
@@ -886,13 +893,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
@@ -913,19 +920,19 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E9" si="4">F9*H9</f>
         <v>2</v>
       </c>
       <c r="F9" s="1">
@@ -940,13 +947,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>10</v>
@@ -959,7 +966,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H10" s="1">
         <v>1</v>
@@ -967,67 +974,67 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1">
         <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>10</v>
@@ -1037,24 +1044,24 @@
         <v>2</v>
       </c>
       <c r="F13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>10</v>
@@ -1067,7 +1074,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
@@ -1075,23 +1082,23 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>8</v>
@@ -1102,13 +1109,13 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>10</v>
@@ -1128,41 +1135,68 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="2">
-        <f>COUNTIF(A2:A16,"&lt;&gt;0")</f>
-        <v>15</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="C18" s="2">
+        <f>COUNTIF(A2:A17,"&lt;&gt;0")</f>
+        <v>16</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="2">
-        <f>SUM(E2:E16)</f>
-        <v>31</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="28" spans="1:8" s="2" customFormat="1">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="E18" s="2">
+        <f>SUM(E2:E17)</f>
+        <v>33</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="29" spans="1:8" s="2" customFormat="1">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D16" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D17" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1级,2级,3级,4级,5级"</formula1>
     </dataValidation>
   </dataValidations>

--- a/doc/Process/3-软件迭代阶段/1-软件第一次迭代(v0.1)/SprintBacklogs-0.1.xlsx
+++ b/doc/Process/3-软件迭代阶段/1-软件第一次迭代(v0.1)/SprintBacklogs-0.1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Desktop/Tinder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{40305516-256F-624D-8F3F-8CE6572D53FF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4E735D0-2551-6047-8B02-C7C62452B734}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="v0.1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -215,13 +216,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>登陆账户</t>
-    <rPh sb="0" eb="2">
-      <t>deng l</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>A13</t>
   </si>
   <si>
@@ -269,7 +263,17 @@
     <t>A16</t>
   </si>
   <si>
-    <t>登录</t>
+    <t>用户登录</t>
+    <rPh sb="0" eb="2">
+      <t>yong hu deng</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录账户</t>
+    <rPh sb="0" eb="4">
+      <t>deng</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -688,7 +692,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="11"/>
@@ -734,10 +738,10 @@
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -845,7 +849,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -926,7 +930,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
@@ -1031,7 +1035,7 @@
         <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>39</v>
@@ -1055,13 +1059,13 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>10</v>
@@ -1082,10 +1086,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>37</v>
@@ -1109,10 +1113,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>38</v>
@@ -1136,13 +1140,13 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>10</v>
